--- a/Code/Results/Cases/Case_5_227/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_227/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.77896362683131</v>
+        <v>16.91016218945229</v>
       </c>
       <c r="C2">
-        <v>9.726351861348506</v>
+        <v>9.087496150432351</v>
       </c>
       <c r="D2">
-        <v>3.936912209692308</v>
+        <v>6.000319336269989</v>
       </c>
       <c r="E2">
-        <v>9.358091969384692</v>
+        <v>12.39933772938317</v>
       </c>
       <c r="F2">
-        <v>39.30042919318908</v>
+        <v>48.35214782205482</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.819376659769357</v>
+        <v>10.51387118435653</v>
       </c>
       <c r="K2">
-        <v>14.73402994273744</v>
+        <v>16.44594121733554</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>16.30336988886645</v>
+        <v>23.38362989782251</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,28 +462,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.80788356694498</v>
+        <v>16.72091115277291</v>
       </c>
       <c r="C3">
-        <v>9.111480758399145</v>
+        <v>8.955958201609771</v>
       </c>
       <c r="D3">
-        <v>3.713299797450241</v>
+        <v>5.99183912387851</v>
       </c>
       <c r="E3">
-        <v>8.963484025018538</v>
+        <v>12.36723847085992</v>
       </c>
       <c r="F3">
-        <v>38.20721937197375</v>
+        <v>48.23118647083454</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.704983783586241</v>
+        <v>10.52161106110625</v>
       </c>
       <c r="K3">
-        <v>13.95388284892342</v>
+        <v>16.32495903335073</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>16.41733717005535</v>
+        <v>23.42070127150854</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,28 +503,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.1939206100324</v>
+        <v>16.60853212556562</v>
       </c>
       <c r="C4">
-        <v>8.720661963651484</v>
+        <v>8.877108239591189</v>
       </c>
       <c r="D4">
-        <v>3.587071889395674</v>
+        <v>5.987983214063337</v>
       </c>
       <c r="E4">
-        <v>8.719627149501759</v>
+        <v>12.35036435372169</v>
       </c>
       <c r="F4">
-        <v>37.55218136877007</v>
+        <v>48.16678383780935</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.638258868569154</v>
+        <v>10.52809246315956</v>
       </c>
       <c r="K4">
-        <v>13.46417401151485</v>
+        <v>16.25463664351166</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>16.49251717089267</v>
+        <v>23.44533657101202</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,28 +544,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.93949516611371</v>
+        <v>16.56375058004301</v>
       </c>
       <c r="C5">
-        <v>8.55814893260801</v>
+        <v>8.845500106932564</v>
       </c>
       <c r="D5">
-        <v>3.534876715092065</v>
+        <v>5.986753500837777</v>
       </c>
       <c r="E5">
-        <v>8.619985700370639</v>
+        <v>12.34420545500094</v>
       </c>
       <c r="F5">
-        <v>37.28945702782492</v>
+        <v>48.14303233604273</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.611946377079023</v>
+        <v>10.53116836135043</v>
       </c>
       <c r="K5">
-        <v>13.26214157908198</v>
+        <v>16.22700236974823</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -574,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16.52441693783669</v>
+        <v>23.45584649757834</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,28 +585,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.89700023409503</v>
+        <v>16.55637736940041</v>
       </c>
       <c r="C6">
-        <v>8.530970711284718</v>
+        <v>8.840284457531121</v>
       </c>
       <c r="D6">
-        <v>3.526166264891565</v>
+        <v>5.986569989860326</v>
       </c>
       <c r="E6">
-        <v>8.603428153836528</v>
+        <v>12.34322622546921</v>
       </c>
       <c r="F6">
-        <v>37.24609015378546</v>
+        <v>48.13923928813549</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.607630106065276</v>
+        <v>10.53170535948514</v>
       </c>
       <c r="K6">
-        <v>13.22845221988945</v>
+        <v>16.22247622628874</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -615,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>16.52978893006028</v>
+        <v>23.45762009422284</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,28 +626,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.19050612850628</v>
+        <v>16.60792401301855</v>
       </c>
       <c r="C7">
-        <v>8.718483276045374</v>
+        <v>8.876679784978595</v>
       </c>
       <c r="D7">
-        <v>3.586370931773434</v>
+        <v>5.987965244282598</v>
       </c>
       <c r="E7">
-        <v>8.71828425528305</v>
+        <v>12.35027838226726</v>
       </c>
       <c r="F7">
-        <v>37.54862094985469</v>
+        <v>48.16645340883957</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.637900459264426</v>
+        <v>10.52813218606365</v>
       </c>
       <c r="K7">
-        <v>13.46145901890288</v>
+        <v>16.25425978358839</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -656,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>16.49294232381116</v>
+        <v>23.44547640549097</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,28 +667,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.4479284439909</v>
+        <v>16.84414751895529</v>
       </c>
       <c r="C8">
-        <v>9.517144811750491</v>
+        <v>9.041770146924264</v>
       </c>
       <c r="D8">
-        <v>3.853292083012765</v>
+        <v>5.997116173145387</v>
       </c>
       <c r="E8">
-        <v>9.222426281022921</v>
+        <v>12.38768446487506</v>
       </c>
       <c r="F8">
-        <v>38.92020721753337</v>
+        <v>48.30839991894392</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.779202129148752</v>
+        <v>10.51618098100033</v>
       </c>
       <c r="K8">
-        <v>14.46737081883615</v>
+        <v>16.40342095570022</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>16.34155723943603</v>
+        <v>23.39602316469463</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,28 +708,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.7662661738689</v>
+        <v>17.33528982096473</v>
       </c>
       <c r="C9">
-        <v>11.03805140621202</v>
+        <v>9.378803075831128</v>
       </c>
       <c r="D9">
-        <v>4.426263611795036</v>
+        <v>6.025686491495461</v>
       </c>
       <c r="E9">
-        <v>10.19404439171906</v>
+        <v>12.48329953695077</v>
       </c>
       <c r="F9">
-        <v>41.73326154612039</v>
+        <v>48.66444337776712</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.084395419418381</v>
+        <v>10.50646632548449</v>
       </c>
       <c r="K9">
-        <v>16.34796245841981</v>
+        <v>16.72609915938948</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>16.08825472333161</v>
+        <v>23.31391977522017</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,28 +749,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.44650147777464</v>
+        <v>17.70980688872122</v>
       </c>
       <c r="C10">
-        <v>12.12405839342002</v>
+        <v>9.631949517185754</v>
       </c>
       <c r="D10">
-        <v>4.80934653565313</v>
+        <v>6.053012681936611</v>
       </c>
       <c r="E10">
-        <v>10.89284066749061</v>
+        <v>12.56676334762343</v>
       </c>
       <c r="F10">
-        <v>43.87037036008842</v>
+        <v>48.97242593026432</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.326164156208112</v>
+        <v>10.50769215369598</v>
       </c>
       <c r="K10">
-        <v>17.84348433217219</v>
+        <v>16.97977114404448</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>15.93228188655408</v>
+        <v>23.26268080188082</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,28 +790,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.2326567066422</v>
+        <v>17.88242705026159</v>
       </c>
       <c r="C11">
-        <v>12.59933159414461</v>
+        <v>9.747769528388179</v>
       </c>
       <c r="D11">
-        <v>4.975639722726906</v>
+        <v>6.066784283538213</v>
       </c>
       <c r="E11">
-        <v>11.20689900124643</v>
+        <v>12.60751263761451</v>
       </c>
       <c r="F11">
-        <v>44.85759367122034</v>
+        <v>49.12235707454236</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.44009393102064</v>
+        <v>10.51006300540326</v>
       </c>
       <c r="K11">
-        <v>18.53815673072036</v>
+        <v>17.09836812998662</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>15.86879519167081</v>
+        <v>23.24134640986413</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,28 +831,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.52593238221076</v>
+        <v>17.94805639747706</v>
       </c>
       <c r="C12">
-        <v>12.7767223462942</v>
+        <v>9.791678404487737</v>
       </c>
       <c r="D12">
-        <v>5.037487877756567</v>
+        <v>6.072188636688345</v>
       </c>
       <c r="E12">
-        <v>11.32525355335426</v>
+        <v>12.62333459381571</v>
       </c>
       <c r="F12">
-        <v>45.23362903286339</v>
+        <v>49.18052026700762</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.483819179797711</v>
+        <v>10.5112210294552</v>
       </c>
       <c r="K12">
-        <v>18.79714638762334</v>
+        <v>17.1437020445831</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>15.84591798131904</v>
+        <v>23.23355188286341</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,28 +872,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.46296437973669</v>
+        <v>17.93391127624925</v>
       </c>
       <c r="C13">
-        <v>12.73863108327883</v>
+        <v>9.782220305543861</v>
       </c>
       <c r="D13">
-        <v>5.024217336078375</v>
+        <v>6.071016348840248</v>
       </c>
       <c r="E13">
-        <v>11.29978937454698</v>
+        <v>12.61990980625812</v>
       </c>
       <c r="F13">
-        <v>45.15254431957715</v>
+        <v>49.167932505497</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.47437596788731</v>
+        <v>10.51096006372213</v>
       </c>
       <c r="K13">
-        <v>18.74154653097555</v>
+        <v>17.13392031247542</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>15.85079167696719</v>
+        <v>23.23521792067311</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,28 +913,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.25687241052112</v>
+        <v>17.88782152063829</v>
       </c>
       <c r="C14">
-        <v>12.61397674472212</v>
+        <v>9.751381182014619</v>
       </c>
       <c r="D14">
-        <v>4.980750380150189</v>
+        <v>6.067225128771322</v>
       </c>
       <c r="E14">
-        <v>11.21664762775876</v>
+        <v>12.60880653441311</v>
       </c>
       <c r="F14">
-        <v>44.88848593908149</v>
+        <v>49.12711454263048</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.443679456445857</v>
+        <v>10.51015306462265</v>
       </c>
       <c r="K14">
-        <v>18.55954451815732</v>
+        <v>17.10208949550874</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>15.86688918747278</v>
+        <v>23.24069944833725</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,28 +954,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.13006374965985</v>
+        <v>17.8596224881899</v>
       </c>
       <c r="C15">
-        <v>12.53728933040117</v>
+        <v>9.73249657254294</v>
       </c>
       <c r="D15">
-        <v>4.953980044905394</v>
+        <v>6.064927448912898</v>
       </c>
       <c r="E15">
-        <v>11.16564604918591</v>
+        <v>12.60205611748116</v>
       </c>
       <c r="F15">
-        <v>44.72703038873858</v>
+        <v>49.10229225651462</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.424953341545347</v>
+        <v>10.50969262728673</v>
       </c>
       <c r="K15">
-        <v>18.44753829689462</v>
+        <v>17.08264630173418</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>15.87690381373825</v>
+        <v>23.24409408484433</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,28 +995,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.39449670515457</v>
+        <v>17.69856575014178</v>
       </c>
       <c r="C16">
-        <v>12.0926299902683</v>
+        <v>9.624389872870061</v>
       </c>
       <c r="D16">
-        <v>4.798320344168996</v>
+        <v>6.05213936531063</v>
       </c>
       <c r="E16">
-        <v>10.87223682802016</v>
+        <v>12.56415550821217</v>
       </c>
       <c r="F16">
-        <v>43.80615715873424</v>
+        <v>48.96282319393075</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.318799176889057</v>
+        <v>10.50757365942169</v>
       </c>
       <c r="K16">
-        <v>17.79750762090521</v>
+        <v>16.9720818563366</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>15.93658858446712</v>
+        <v>23.2641148215035</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,28 +1036,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.93520494160461</v>
+        <v>17.60029498723435</v>
       </c>
       <c r="C17">
-        <v>11.81511695655674</v>
+        <v>9.558207285992481</v>
       </c>
       <c r="D17">
-        <v>4.700801460741346</v>
+        <v>6.04463531317935</v>
       </c>
       <c r="E17">
-        <v>10.69123708694736</v>
+        <v>12.54161094466189</v>
       </c>
       <c r="F17">
-        <v>43.2450893787906</v>
+        <v>48.87976305780798</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.254697266133451</v>
+        <v>10.50673783262466</v>
       </c>
       <c r="K17">
-        <v>17.39131493288686</v>
+        <v>16.90504817470844</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>15.97517620872777</v>
+        <v>23.27690289916465</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,28 +1077,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.67486901199443</v>
+        <v>17.5439877532191</v>
       </c>
       <c r="C18">
-        <v>11.65372569599145</v>
+        <v>9.52020578955225</v>
       </c>
       <c r="D18">
-        <v>4.64395913477784</v>
+        <v>6.040445603762098</v>
       </c>
       <c r="E18">
-        <v>10.58677056684125</v>
+        <v>12.52890625640381</v>
       </c>
       <c r="F18">
-        <v>42.92378870416326</v>
+        <v>48.83291583705746</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.218198005539002</v>
+        <v>10.50642779425608</v>
       </c>
       <c r="K18">
-        <v>17.15490693999813</v>
+        <v>16.86679563584621</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>15.9980675022669</v>
+        <v>23.28444408460138</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,28 +1118,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.59344076863073</v>
+        <v>17.52496199388863</v>
       </c>
       <c r="C19">
-        <v>11.59877368081835</v>
+        <v>9.507351681802396</v>
       </c>
       <c r="D19">
-        <v>4.62458348423884</v>
+        <v>6.039048854786578</v>
       </c>
       <c r="E19">
-        <v>10.55133913893743</v>
+        <v>12.52464998514608</v>
       </c>
       <c r="F19">
-        <v>42.81524402289254</v>
+        <v>48.81721409720908</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.205903236132805</v>
+        <v>10.50635215288342</v>
       </c>
       <c r="K19">
-        <v>17.07438180954562</v>
+        <v>16.85389720011735</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>16.00593519457297</v>
+        <v>23.28702930280568</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,28 +1159,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.98440709292595</v>
+        <v>17.61073422223076</v>
       </c>
       <c r="C20">
-        <v>11.84484143703954</v>
+        <v>9.565246139335429</v>
       </c>
       <c r="D20">
-        <v>4.711260188923832</v>
+        <v>6.045421072335304</v>
       </c>
       <c r="E20">
-        <v>10.71054233012251</v>
+        <v>12.54398376199482</v>
       </c>
       <c r="F20">
-        <v>43.30466994747427</v>
+        <v>48.88850921390601</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.261482590560946</v>
+        <v>10.5068091435344</v>
       </c>
       <c r="K20">
-        <v>17.43484112400824</v>
+        <v>16.91215287885807</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>15.97099576546221</v>
+        <v>23.27552235178939</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,28 +1200,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.31752539480136</v>
+        <v>17.90135258277946</v>
       </c>
       <c r="C21">
-        <v>12.65065992685742</v>
+        <v>9.760438365735093</v>
       </c>
       <c r="D21">
-        <v>4.993547969675685</v>
+        <v>6.068333591908567</v>
       </c>
       <c r="E21">
-        <v>11.24108398448361</v>
+        <v>12.61205729413098</v>
       </c>
       <c r="F21">
-        <v>44.96598616242365</v>
+        <v>49.1390663268265</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.452679813801034</v>
+        <v>10.51038304182162</v>
       </c>
       <c r="K21">
-        <v>18.61311196708865</v>
+        <v>17.11142776935681</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>15.86212859667436</v>
+        <v>23.23908167039452</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,28 +1241,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.1630936362272</v>
+        <v>18.09278644859249</v>
       </c>
       <c r="C22">
-        <v>13.16230563423878</v>
+        <v>9.888281302134025</v>
       </c>
       <c r="D22">
-        <v>5.17150394186251</v>
+        <v>6.084410137210695</v>
       </c>
       <c r="E22">
-        <v>11.58449123199314</v>
+        <v>12.6588222931094</v>
       </c>
       <c r="F22">
-        <v>46.06460616447819</v>
+        <v>49.31089398622673</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.581044310842028</v>
+        <v>10.51423530597934</v>
       </c>
       <c r="K22">
-        <v>19.35955700158208</v>
+        <v>17.24411840808683</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>15.79781166084859</v>
+        <v>23.2169231542068</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,28 +1282,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.71409452152709</v>
+        <v>17.99049779171631</v>
       </c>
       <c r="C23">
-        <v>12.89056227630005</v>
+        <v>9.820038615469686</v>
       </c>
       <c r="D23">
-        <v>5.077115023679168</v>
+        <v>6.075730161591685</v>
       </c>
       <c r="E23">
-        <v>11.40151508230893</v>
+        <v>12.63365784886292</v>
       </c>
       <c r="F23">
-        <v>45.47704981366189</v>
+        <v>49.21845661165698</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.512215853374602</v>
+        <v>10.51204071974781</v>
       </c>
       <c r="K23">
-        <v>18.96326969805746</v>
+        <v>17.17308665647812</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>15.83148063198133</v>
+        <v>23.22859776284902</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,28 +1323,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.96217253548253</v>
+        <v>17.60601404774531</v>
       </c>
       <c r="C24">
-        <v>11.83140875547134</v>
+        <v>9.562063721567098</v>
       </c>
       <c r="D24">
-        <v>4.706534221109442</v>
+        <v>6.045065442663851</v>
       </c>
       <c r="E24">
-        <v>10.70181569656857</v>
+        <v>12.54291021172906</v>
       </c>
       <c r="F24">
-        <v>43.27772963487597</v>
+        <v>48.88455225527047</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.258413844482304</v>
+        <v>10.50677637278769</v>
       </c>
       <c r="K24">
-        <v>17.41517192280215</v>
+        <v>16.90893994843714</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>15.9728835491623</v>
+        <v>23.27614590806661</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,28 +1364,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.15562854998492</v>
+        <v>17.19977572108214</v>
       </c>
       <c r="C25">
-        <v>10.62082306011768</v>
+        <v>9.286469628901621</v>
       </c>
       <c r="D25">
-        <v>4.277983866001674</v>
+        <v>6.016833572396283</v>
       </c>
       <c r="E25">
-        <v>9.933575735689331</v>
+        <v>12.45508380190033</v>
       </c>
       <c r="F25">
-        <v>40.95966106064947</v>
+        <v>48.55989729316158</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.998786804350439</v>
+        <v>10.50762510545835</v>
       </c>
       <c r="K25">
-        <v>15.84987595165337</v>
+        <v>16.63575545616381</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>16.15177359765578</v>
+        <v>23.33453704752511</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_227/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_227/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.91016218945229</v>
+        <v>16.77896362683134</v>
       </c>
       <c r="C2">
-        <v>9.087496150432351</v>
+        <v>9.726351861348487</v>
       </c>
       <c r="D2">
-        <v>6.000319336269989</v>
+        <v>3.936912209692349</v>
       </c>
       <c r="E2">
-        <v>12.39933772938317</v>
+        <v>9.35809196938466</v>
       </c>
       <c r="F2">
-        <v>48.35214782205482</v>
+        <v>39.3004291931891</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.51387118435653</v>
+        <v>6.819376659769352</v>
       </c>
       <c r="K2">
-        <v>16.44594121733554</v>
+        <v>14.73402994273744</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>23.38362989782251</v>
+        <v>16.30336988886649</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,28 +462,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.72091115277291</v>
+        <v>15.80788356694502</v>
       </c>
       <c r="C3">
-        <v>8.955958201609771</v>
+        <v>9.111480758399161</v>
       </c>
       <c r="D3">
-        <v>5.99183912387851</v>
+        <v>3.713299797450241</v>
       </c>
       <c r="E3">
-        <v>12.36723847085992</v>
+        <v>8.963484025018529</v>
       </c>
       <c r="F3">
-        <v>48.23118647083454</v>
+        <v>38.20721937197386</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.52161106110625</v>
+        <v>6.704983783586218</v>
       </c>
       <c r="K3">
-        <v>16.32495903335073</v>
+        <v>13.95388284892343</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>23.42070127150854</v>
+        <v>16.41733717005541</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,28 +503,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.60853212556562</v>
+        <v>15.19392061003237</v>
       </c>
       <c r="C4">
-        <v>8.877108239591189</v>
+        <v>8.720661963651525</v>
       </c>
       <c r="D4">
-        <v>5.987983214063337</v>
+        <v>3.587071889395631</v>
       </c>
       <c r="E4">
-        <v>12.35036435372169</v>
+        <v>8.719627149501772</v>
       </c>
       <c r="F4">
-        <v>48.16678383780935</v>
+        <v>37.55218136877001</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.52809246315956</v>
+        <v>6.63825886856923</v>
       </c>
       <c r="K4">
-        <v>16.25463664351166</v>
+        <v>13.46417401151485</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>23.44533657101202</v>
+        <v>16.49251717089265</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,28 +544,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.56375058004301</v>
+        <v>14.93949516611369</v>
       </c>
       <c r="C5">
-        <v>8.845500106932564</v>
+        <v>8.558148932608034</v>
       </c>
       <c r="D5">
-        <v>5.986753500837777</v>
+        <v>3.534876715092039</v>
       </c>
       <c r="E5">
-        <v>12.34420545500094</v>
+        <v>8.619985700370632</v>
       </c>
       <c r="F5">
-        <v>48.14303233604273</v>
+        <v>37.28945702782472</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.53116836135043</v>
+        <v>6.611946377079023</v>
       </c>
       <c r="K5">
-        <v>16.22700236974823</v>
+        <v>13.26214157908195</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -574,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>23.45584649757834</v>
+        <v>16.5244169378366</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,28 +585,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.55637736940041</v>
+        <v>14.89700023409505</v>
       </c>
       <c r="C6">
-        <v>8.840284457531121</v>
+        <v>8.530970711284715</v>
       </c>
       <c r="D6">
-        <v>5.986569989860326</v>
+        <v>3.526166264891559</v>
       </c>
       <c r="E6">
-        <v>12.34322622546921</v>
+        <v>8.603428153836528</v>
       </c>
       <c r="F6">
-        <v>48.13923928813549</v>
+        <v>37.24609015378545</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.53170535948514</v>
+        <v>6.60763010606528</v>
       </c>
       <c r="K6">
-        <v>16.22247622628874</v>
+        <v>13.22845221988945</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -615,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>23.45762009422284</v>
+        <v>16.52978893006027</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,28 +626,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.60792401301855</v>
+        <v>15.19050612850625</v>
       </c>
       <c r="C7">
-        <v>8.876679784978595</v>
+        <v>8.718483276045374</v>
       </c>
       <c r="D7">
-        <v>5.987965244282598</v>
+        <v>3.586370931773417</v>
       </c>
       <c r="E7">
-        <v>12.35027838226726</v>
+        <v>8.71828425528302</v>
       </c>
       <c r="F7">
-        <v>48.16645340883957</v>
+        <v>37.54862094985474</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.52813218606365</v>
+        <v>6.637900459264426</v>
       </c>
       <c r="K7">
-        <v>16.25425978358839</v>
+        <v>13.4614590189029</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -656,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>23.44547640549097</v>
+        <v>16.49294232381122</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,28 +667,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.84414751895529</v>
+        <v>16.44792844399087</v>
       </c>
       <c r="C8">
-        <v>9.041770146924264</v>
+        <v>9.517144811750454</v>
       </c>
       <c r="D8">
-        <v>5.997116173145387</v>
+        <v>3.853292083012765</v>
       </c>
       <c r="E8">
-        <v>12.38768446487506</v>
+        <v>9.222426281022928</v>
       </c>
       <c r="F8">
-        <v>48.30839991894392</v>
+        <v>38.92020721753332</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.51618098100033</v>
+        <v>6.779202129148763</v>
       </c>
       <c r="K8">
-        <v>16.40342095570022</v>
+        <v>14.46737081883613</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>23.39602316469463</v>
+        <v>16.34155723943607</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,28 +708,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.33528982096473</v>
+        <v>18.7662661738689</v>
       </c>
       <c r="C9">
-        <v>9.378803075831128</v>
+        <v>11.03805140621203</v>
       </c>
       <c r="D9">
-        <v>6.025686491495461</v>
+        <v>4.42626361179488</v>
       </c>
       <c r="E9">
-        <v>12.48329953695077</v>
+        <v>10.19404439171906</v>
       </c>
       <c r="F9">
-        <v>48.66444337776712</v>
+        <v>41.73326154612037</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.50646632548449</v>
+        <v>7.084395419418368</v>
       </c>
       <c r="K9">
-        <v>16.72609915938948</v>
+        <v>16.34796245841981</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>23.31391977522017</v>
+        <v>16.08825472333156</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,28 +749,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.70980688872122</v>
+        <v>20.44650147777463</v>
       </c>
       <c r="C10">
-        <v>9.631949517185754</v>
+        <v>12.12405839341999</v>
       </c>
       <c r="D10">
-        <v>6.053012681936611</v>
+        <v>4.809346535653148</v>
       </c>
       <c r="E10">
-        <v>12.56676334762343</v>
+        <v>10.8928406674906</v>
       </c>
       <c r="F10">
-        <v>48.97242593026432</v>
+        <v>43.87037036008848</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.50769215369598</v>
+        <v>7.326164156208145</v>
       </c>
       <c r="K10">
-        <v>16.97977114404448</v>
+        <v>17.84348433217215</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>23.26268080188082</v>
+        <v>15.93228188655413</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,28 +790,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.88242705026159</v>
+        <v>21.23265670664227</v>
       </c>
       <c r="C11">
-        <v>9.747769528388179</v>
+        <v>12.59933159414465</v>
       </c>
       <c r="D11">
-        <v>6.066784283538213</v>
+        <v>4.975639722727059</v>
       </c>
       <c r="E11">
-        <v>12.60751263761451</v>
+        <v>11.2068990012464</v>
       </c>
       <c r="F11">
-        <v>49.12235707454236</v>
+        <v>44.85759367122027</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.51006300540326</v>
+        <v>7.440093931020701</v>
       </c>
       <c r="K11">
-        <v>17.09836812998662</v>
+        <v>18.53815673072042</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>23.24134640986413</v>
+        <v>15.86879519167077</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,28 +831,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.94805639747706</v>
+        <v>21.52593238221081</v>
       </c>
       <c r="C12">
-        <v>9.791678404487737</v>
+        <v>12.7767223462943</v>
       </c>
       <c r="D12">
-        <v>6.072188636688345</v>
+        <v>5.037487877756502</v>
       </c>
       <c r="E12">
-        <v>12.62333459381571</v>
+        <v>11.32525355335429</v>
       </c>
       <c r="F12">
-        <v>49.18052026700762</v>
+        <v>45.23362903286327</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.5112210294552</v>
+        <v>7.4838191797977</v>
       </c>
       <c r="K12">
-        <v>17.1437020445831</v>
+        <v>18.79714638762341</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>23.23355188286341</v>
+        <v>15.84591798131891</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,28 +872,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.93391127624925</v>
+        <v>21.46296437973666</v>
       </c>
       <c r="C13">
-        <v>9.782220305543861</v>
+        <v>12.73863108327884</v>
       </c>
       <c r="D13">
-        <v>6.071016348840248</v>
+        <v>5.024217336078486</v>
       </c>
       <c r="E13">
-        <v>12.61990980625812</v>
+        <v>11.29978937454697</v>
       </c>
       <c r="F13">
-        <v>49.167932505497</v>
+        <v>45.15254431957713</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.51096006372213</v>
+        <v>7.474375967887319</v>
       </c>
       <c r="K13">
-        <v>17.13392031247542</v>
+        <v>18.74154653097554</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>23.23521792067311</v>
+        <v>15.85079167696721</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,28 +913,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.88782152063829</v>
+        <v>21.25687241052108</v>
       </c>
       <c r="C14">
-        <v>9.751381182014619</v>
+        <v>12.61397674472195</v>
       </c>
       <c r="D14">
-        <v>6.067225128771322</v>
+        <v>4.980750380150258</v>
       </c>
       <c r="E14">
-        <v>12.60880653441311</v>
+        <v>11.21664762775876</v>
       </c>
       <c r="F14">
-        <v>49.12711454263048</v>
+        <v>44.88848593908146</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.51015306462265</v>
+        <v>7.443679456445852</v>
       </c>
       <c r="K14">
-        <v>17.10208949550874</v>
+        <v>18.55954451815724</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>23.24069944833725</v>
+        <v>15.86688918747283</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,28 +954,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.8596224881899</v>
+        <v>21.13006374965987</v>
       </c>
       <c r="C15">
-        <v>9.73249657254294</v>
+        <v>12.53728933040115</v>
       </c>
       <c r="D15">
-        <v>6.064927448912898</v>
+        <v>4.953980044905387</v>
       </c>
       <c r="E15">
-        <v>12.60205611748116</v>
+        <v>11.16564604918587</v>
       </c>
       <c r="F15">
-        <v>49.10229225651462</v>
+        <v>44.72703038873856</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.50969262728673</v>
+        <v>7.424953341545367</v>
       </c>
       <c r="K15">
-        <v>17.08264630173418</v>
+        <v>18.44753829689462</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>23.24409408484433</v>
+        <v>15.87690381373824</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,28 +995,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.69856575014178</v>
+        <v>20.39449670515454</v>
       </c>
       <c r="C16">
-        <v>9.624389872870061</v>
+        <v>12.09262999026826</v>
       </c>
       <c r="D16">
-        <v>6.05213936531063</v>
+        <v>4.79832034416892</v>
       </c>
       <c r="E16">
-        <v>12.56415550821217</v>
+        <v>10.87223682802019</v>
       </c>
       <c r="F16">
-        <v>48.96282319393075</v>
+        <v>43.80615715873429</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.50757365942169</v>
+        <v>7.31879917688912</v>
       </c>
       <c r="K16">
-        <v>16.9720818563366</v>
+        <v>17.79750762090516</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>23.2641148215035</v>
+        <v>15.93658858446717</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,28 +1036,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.60029498723435</v>
+        <v>19.93520494160465</v>
       </c>
       <c r="C17">
-        <v>9.558207285992481</v>
+        <v>11.81511695655672</v>
       </c>
       <c r="D17">
-        <v>6.04463531317935</v>
+        <v>4.700801460741386</v>
       </c>
       <c r="E17">
-        <v>12.54161094466189</v>
+        <v>10.69123708694737</v>
       </c>
       <c r="F17">
-        <v>48.87976305780798</v>
+        <v>43.24508937879061</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.50673783262466</v>
+        <v>7.254697266133444</v>
       </c>
       <c r="K17">
-        <v>16.90504817470844</v>
+        <v>17.39131493288687</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>23.27690289916465</v>
+        <v>15.9751762087277</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,28 +1077,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.5439877532191</v>
+        <v>19.67486901199444</v>
       </c>
       <c r="C18">
-        <v>9.52020578955225</v>
+        <v>11.6537256959915</v>
       </c>
       <c r="D18">
-        <v>6.040445603762098</v>
+        <v>4.643959134777812</v>
       </c>
       <c r="E18">
-        <v>12.52890625640381</v>
+        <v>10.58677056684123</v>
       </c>
       <c r="F18">
-        <v>48.83291583705746</v>
+        <v>42.92378870416334</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.50642779425608</v>
+        <v>7.218198005538981</v>
       </c>
       <c r="K18">
-        <v>16.86679563584621</v>
+        <v>17.15490693999818</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>23.28444408460138</v>
+        <v>15.99806750226694</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,28 +1118,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.52496199388863</v>
+        <v>19.59344076863074</v>
       </c>
       <c r="C19">
-        <v>9.507351681802396</v>
+        <v>11.5987736808183</v>
       </c>
       <c r="D19">
-        <v>6.039048854786578</v>
+        <v>4.624583484238961</v>
       </c>
       <c r="E19">
-        <v>12.52464998514608</v>
+        <v>10.55133913893738</v>
       </c>
       <c r="F19">
-        <v>48.81721409720908</v>
+        <v>42.81524402289264</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.50635215288342</v>
+        <v>7.205903236132782</v>
       </c>
       <c r="K19">
-        <v>16.85389720011735</v>
+        <v>17.0743818095456</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>23.28702930280568</v>
+        <v>16.00593519457306</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,28 +1159,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.61073422223076</v>
+        <v>19.98440709292601</v>
       </c>
       <c r="C20">
-        <v>9.565246139335429</v>
+        <v>11.84484143703949</v>
       </c>
       <c r="D20">
-        <v>6.045421072335304</v>
+        <v>4.711260188923914</v>
       </c>
       <c r="E20">
-        <v>12.54398376199482</v>
+        <v>10.71054233012249</v>
       </c>
       <c r="F20">
-        <v>48.88850921390601</v>
+        <v>43.30466994747412</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.5068091435344</v>
+        <v>7.261482590560971</v>
       </c>
       <c r="K20">
-        <v>16.91215287885807</v>
+        <v>17.43484112400829</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>23.27552235178939</v>
+        <v>15.97099576546208</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,28 +1200,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.90135258277946</v>
+        <v>21.31752539480139</v>
       </c>
       <c r="C21">
-        <v>9.760438365735093</v>
+        <v>12.65065992685758</v>
       </c>
       <c r="D21">
-        <v>6.068333591908567</v>
+        <v>4.993547969675764</v>
       </c>
       <c r="E21">
-        <v>12.61205729413098</v>
+        <v>11.2410839844836</v>
       </c>
       <c r="F21">
-        <v>49.1390663268265</v>
+        <v>44.96598616242357</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.51038304182162</v>
+        <v>7.452679813801022</v>
       </c>
       <c r="K21">
-        <v>17.11142776935681</v>
+        <v>18.61311196708873</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>23.23908167039452</v>
+        <v>15.86212859667429</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,28 +1241,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.09278644859249</v>
+        <v>22.16309363622731</v>
       </c>
       <c r="C22">
-        <v>9.888281302134025</v>
+        <v>13.16230563423887</v>
       </c>
       <c r="D22">
-        <v>6.084410137210695</v>
+        <v>5.171503941862414</v>
       </c>
       <c r="E22">
-        <v>12.6588222931094</v>
+        <v>11.58449123199319</v>
       </c>
       <c r="F22">
-        <v>49.31089398622673</v>
+        <v>46.06460616447816</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.51423530597934</v>
+        <v>7.581044310842057</v>
       </c>
       <c r="K22">
-        <v>17.24411840808683</v>
+        <v>19.35955700158225</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>23.2169231542068</v>
+        <v>15.79781166084848</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,28 +1282,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.99049779171631</v>
+        <v>21.71409452152714</v>
       </c>
       <c r="C23">
-        <v>9.820038615469686</v>
+        <v>12.89056227630004</v>
       </c>
       <c r="D23">
-        <v>6.075730161591685</v>
+        <v>5.077115023679227</v>
       </c>
       <c r="E23">
-        <v>12.63365784886292</v>
+        <v>11.40151508230894</v>
       </c>
       <c r="F23">
-        <v>49.21845661165698</v>
+        <v>45.47704981366188</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.51204071974781</v>
+        <v>7.512215853374568</v>
       </c>
       <c r="K23">
-        <v>17.17308665647812</v>
+        <v>18.96326969805749</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>23.22859776284902</v>
+        <v>15.83148063198122</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,28 +1323,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.60601404774531</v>
+        <v>19.96217253548255</v>
       </c>
       <c r="C24">
-        <v>9.562063721567098</v>
+        <v>11.83140875547141</v>
       </c>
       <c r="D24">
-        <v>6.045065442663851</v>
+        <v>4.706534221109479</v>
       </c>
       <c r="E24">
-        <v>12.54291021172906</v>
+        <v>10.70181569656862</v>
       </c>
       <c r="F24">
-        <v>48.88455225527047</v>
+        <v>43.27772963487588</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.50677637278769</v>
+        <v>7.258413844482346</v>
       </c>
       <c r="K24">
-        <v>16.90893994843714</v>
+        <v>17.41517192280222</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>23.27614590806661</v>
+        <v>15.97288354916222</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,28 +1364,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.19977572108214</v>
+        <v>18.15562854998493</v>
       </c>
       <c r="C25">
-        <v>9.286469628901621</v>
+        <v>10.62082306011761</v>
       </c>
       <c r="D25">
-        <v>6.016833572396283</v>
+        <v>4.277983866001798</v>
       </c>
       <c r="E25">
-        <v>12.45508380190033</v>
+        <v>9.933575735689285</v>
       </c>
       <c r="F25">
-        <v>48.55989729316158</v>
+        <v>40.95966106064968</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.50762510545835</v>
+        <v>6.99878680435049</v>
       </c>
       <c r="K25">
-        <v>16.63575545616381</v>
+        <v>15.84987595165339</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>23.33453704752511</v>
+        <v>16.15177359765592</v>
       </c>
       <c r="O25">
         <v>0</v>
